--- a/biology/Zoologie/Eriosomatini/Eriosomatini.xlsx
+++ b/biology/Zoologie/Eriosomatini/Eriosomatini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eriosomatini sont une tribu de la famille Aphididae et de la sous-famille Eriosomatinae.
 </t>
@@ -511,11 +523,49 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La tribu a été créée en 1920 par l'entomologiste américain Arthur Challen Baker (d) (1875-1959)[2],[3].
-Selon BioLib, la tribu Eriosomatini a 14 genres et un genre fossile[1] :
-Genres
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tribu a été créée en 1920 par l'entomologiste américain Arthur Challen Baker (d) (1875-1959),.
+Selon BioLib, la tribu Eriosomatini a 14 genres et un genre fossile :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eriosomatini</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eriosomatini</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 genre Aphidounguis Takahashi, 1963
 genre Byrsocryptoides Dzhibladze, 1960
 genre Colopha Monell, 1877
@@ -530,36 +580,73 @@
 genre Siciunguis Zhang &amp; Qiao, 1999
 genre Tetraneura Hartig, 1841
 genre Zelkovaphis Barbagallo, 2002
-Genre fossile
-genre †Tetraneurites Heie, 2002</t>
+</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Eriosomatini</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Eriosomatini</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Genre fossile</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>genre †Tetraneurites Heie, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eriosomatini</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eriosomatini</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) A. C. Baker., Generic classification of the hemipterous family Aphididae. United States Department of Agriculture Bulletin 826:1-109, 1920</t>
         </is>
